--- a/biology/Zoologie/Faux-cuivré_de_l'astragale/Faux-cuivré_de_l'astragale.xlsx
+++ b/biology/Zoologie/Faux-cuivré_de_l'astragale/Faux-cuivré_de_l'astragale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_de_l%27astragale</t>
+          <t>Faux-cuivré_de_l'astragale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tomares nogelii
 Le Faux-cuivré de l'astragale ou Faux-cuivré de Nogel (Tomares nogelii) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_de_l%27astragale</t>
+          <t>Faux-cuivré_de_l'astragale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tomares nogelii nommé par Gottlieb August Wilhelm Herrich-Schäffer en 1851.
-Synonyme : Polyommatus nogelii (Herrich-Schäffer, 1851)[1]
-Noms vernaculaires
-Le Faux-cuivré de l'astragale ou Faux-cuivré de Nogel se nomme Nogel's Hairstreak en anglais.
-Sous-espèces
-Tomares nogelii dobrogensis  (Caradja, 1895)
-Tomares nogelii nesimachus (Oberthür, 1893)
-Tomares nogelii obscura (Rühl, 1893)[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomares nogelii nommé par Gottlieb August Wilhelm Herrich-Schäffer en 1851.
+Synonyme : Polyommatus nogelii (Herrich-Schäffer, 1851)
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_de_l%27astragale</t>
+          <t>Faux-cuivré_de_l'astragale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Faux-cuivré de l'astragale est un petit papillon présentant un dimorphisme sexuel. Le dessus des ailes du mâle est marron alors que celui de la femelle est orange bordé de marron aux antérieures et marron orné d'orange aux postérieures.
-Le verso des ailes gris est ornementé de dessins ovales orange limités par des points noirs.
-Espèces proches ou ressemblantes
-Il ressemble au Faux-cuivré smaragdin (Tomares ballus) et au Faux-cuivré du sainfoin  (Tomares maureticus) mais leurs aires de répartition ne se recoupent pas.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré de l'astragale ou Faux-cuivré de Nogel se nomme Nogel's Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -565,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_de_l%27astragale</t>
+          <t>Faux-cuivré_de_l'astragale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,16 +592,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération (univoltin), de mai à début juillet.
-Plantes hôtes
-Sa plante hôte est Astragalus ponticus[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tomares nogelii dobrogensis  (Caradja, 1895)
+Tomares nogelii nesimachus (Oberthür, 1893)
+Tomares nogelii obscura (Rühl, 1893)</t>
         </is>
       </c>
     </row>
@@ -599,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_de_l%27astragale</t>
+          <t>Faux-cuivré_de_l'astragale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,16 +630,233 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré de l'astragale est un petit papillon présentant un dimorphisme sexuel. Le dessus des ailes du mâle est marron alors que celui de la femelle est orange bordé de marron aux antérieures et marron orné d'orange aux postérieures.
+Le verso des ailes gris est ornementé de dessins ovales orange limités par des points noirs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_de_l'astragale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_de_l%27astragale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces proches ou ressemblantes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ressemble au Faux-cuivré smaragdin (Tomares ballus) et au Faux-cuivré du sainfoin  (Tomares maureticus) mais leurs aires de répartition ne se recoupent pas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_de_l'astragale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_de_l%27astragale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération (univoltin), de mai à début juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_de_l'astragale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_de_l%27astragale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Astragalus ponticus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_de_l'astragale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_de_l%27astragale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Faux-cuivré de l'astragale est présent en Roumanie, Bulgarie, Ukraine et en Asie mineure (Turquie,  Arménie, Syrie, Liban, Palestine et nord de l'Iran)[2].
-Biotope
-Il affectionne les zones de broussailles.
-Protection
-Il est inscrit sur la liste rouge des espèces vulnérables[3]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré de l'astragale est présent en Roumanie, Bulgarie, Ukraine et en Asie mineure (Turquie,  Arménie, Syrie, Liban, Palestine et nord de l'Iran).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_de_l'astragale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_de_l%27astragale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les zones de broussailles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_de_l'astragale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_de_l%27astragale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inscrit sur la liste rouge des espèces vulnérables
 En Moldavie, Roumanie, Turquie et Ukraine il est inscrit sur le red data book européen.
 </t>
         </is>
